--- a/data_adjust/new_province_pesticide_usage_2001.xlsx
+++ b/data_adjust/new_province_pesticide_usage_2001.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,55 +446,90 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Annual input in Groundnut fields (t) with Imidacloprid as the benchmark component</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Annual input in Maize fields (t) with Atrazine as the benchmark component</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Annual input in oil crops fields (t) with abamectin as the benchmark component</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Annual input in Other Fibre Crops fields (t) with Phoxim as the benchmark component</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Annual input in Pulses fields (t) with Imidacloprid as the benchmark component</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Annual input in Rice fields (t) with Thiosultap-disodium as the benchmark component</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Annual input in Soybean fields (t) with Imidacloprid as the benchmark component</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Annual input in tuber crops fields (t) with Buprofezin as the benchmark component</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Annual input in Wheat fields (t) with Omethoate as the benchmark component</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Harvested area of Groundnut (ha)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Harvested area of Maize (ha)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Harvested area of oil crops (ha)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Harvested area of Other Fibre Crops (ha)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Harvested area of Pulses (ha)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Harvested area of Rice (ha)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Harvested area of Soybean (ha)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Harvested area of tuber crops (ha)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Harvested area of Wheat (ha)</t>
         </is>
@@ -510,36 +545,57 @@
         <v>1915.790354551768</v>
       </c>
       <c r="C2" t="n">
+        <v>0.3008581749888184</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.60349136338174</v>
+      </c>
+      <c r="E2" t="n">
         <v>10.08850248193541</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
+        <v>0.6447720709904325</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2379061883145328</v>
+      </c>
+      <c r="H2" t="n">
+        <v>400.0302828166751</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.4796665098107</v>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
+      <c r="K2" t="n">
+        <v>25.61730907629786</v>
+      </c>
+      <c r="L2" t="n">
         <v>1329.2</v>
       </c>
-      <c r="F2" t="n">
+      <c r="M2" t="n">
         <v>7387.900000000001</v>
       </c>
-      <c r="G2" t="n">
+      <c r="N2" t="n">
         <v>62634.8</v>
       </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
         <v>2431.9</v>
       </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>2704.6</v>
       </c>
-      <c r="J2" t="n">
+      <c r="Q2" t="n">
         <v>199715.8</v>
       </c>
-      <c r="K2" t="n">
+      <c r="R2" t="n">
         <v>5447.1</v>
       </c>
-      <c r="L2" t="n">
+      <c r="S2" t="n">
         <v>0</v>
       </c>
-      <c r="M2" t="n">
+      <c r="T2" t="n">
         <v>79831.60000000001</v>
       </c>
     </row>
@@ -553,36 +609,57 @@
         <v>4887.220292223898</v>
       </c>
       <c r="C3" t="n">
+        <v>9.268636392893939</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2253.660777544551</v>
+      </c>
+      <c r="E3" t="n">
         <v>19.05896305860239</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
+        <v>1.390452999342993</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14.39906841214368</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1680.893815159697</v>
+      </c>
+      <c r="I3" t="n">
+        <v>27.70970340171245</v>
+      </c>
+      <c r="J3" t="n">
         <v>62.5430623932671</v>
       </c>
-      <c r="E3" t="n">
+      <c r="K3" t="n">
+        <v>190.7097112308684</v>
+      </c>
+      <c r="L3" t="n">
         <v>40949.1</v>
       </c>
-      <c r="F3" t="n">
+      <c r="M3" t="n">
         <v>945824.9</v>
       </c>
-      <c r="G3" t="n">
+      <c r="N3" t="n">
         <v>118328.2</v>
       </c>
-      <c r="H3" t="n">
+      <c r="O3" t="n">
         <v>5244.4</v>
       </c>
-      <c r="I3" t="n">
+      <c r="P3" t="n">
         <v>163693.6</v>
       </c>
-      <c r="J3" t="n">
+      <c r="Q3" t="n">
         <v>839189.1</v>
       </c>
-      <c r="K3" t="n">
+      <c r="R3" t="n">
         <v>102007.8</v>
       </c>
-      <c r="L3" t="n">
+      <c r="S3" t="n">
         <v>261351.5</v>
       </c>
-      <c r="M3" t="n">
+      <c r="T3" t="n">
         <v>594311.5</v>
       </c>
     </row>
@@ -596,36 +673,57 @@
         <v>1915.790354551768</v>
       </c>
       <c r="C4" t="n">
+        <v>0.7140288886696708</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3125.3820766778</v>
+      </c>
+      <c r="E4" t="n">
         <v>116.6758083921122</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
+        <v>0.4360874634504147</v>
+      </c>
+      <c r="G4" t="n">
+        <v>28.36853169483778</v>
+      </c>
+      <c r="H4" t="n">
+        <v>257.4138439471841</v>
+      </c>
+      <c r="I4" t="n">
+        <v>211.4900373186478</v>
+      </c>
+      <c r="J4" t="n">
         <v>142.4998465088203</v>
       </c>
-      <c r="E4" t="n">
+      <c r="K4" t="n">
+        <v>335.2882681448834</v>
+      </c>
+      <c r="L4" t="n">
         <v>3154.6</v>
       </c>
-      <c r="F4" t="n">
+      <c r="M4" t="n">
         <v>1311672.2</v>
       </c>
-      <c r="G4" t="n">
+      <c r="N4" t="n">
         <v>724385.6</v>
       </c>
-      <c r="H4" t="n">
+      <c r="O4" t="n">
         <v>1644.8</v>
       </c>
-      <c r="I4" t="n">
+      <c r="P4" t="n">
         <v>322503.3</v>
       </c>
-      <c r="J4" t="n">
+      <c r="Q4" t="n">
         <v>128514.3</v>
       </c>
-      <c r="K4" t="n">
+      <c r="R4" t="n">
         <v>778558.8</v>
       </c>
-      <c r="L4" t="n">
+      <c r="S4" t="n">
         <v>595470.5</v>
       </c>
-      <c r="M4" t="n">
+      <c r="T4" t="n">
         <v>1044863.8</v>
       </c>
     </row>
@@ -639,36 +737,57 @@
         <v>879.6996526003018</v>
       </c>
       <c r="C5" t="n">
+        <v>2.853784198071412</v>
+      </c>
+      <c r="D5" t="n">
+        <v>526.832592653789</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.005556868316443439</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
+        <v>0.5684143439271303</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3876025394472962</v>
+      </c>
+      <c r="H5" t="n">
+        <v>44.27265818304578</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.920243593915654</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.02725698841060075</v>
       </c>
-      <c r="E5" t="n">
+      <c r="K5" t="n">
+        <v>49.74397928462707</v>
+      </c>
+      <c r="L5" t="n">
         <v>12608.1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="M5" t="n">
         <v>221103.1</v>
       </c>
-      <c r="G5" t="n">
+      <c r="N5" t="n">
         <v>34.5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="O5" t="n">
         <v>2143.9</v>
       </c>
-      <c r="I5" t="n">
+      <c r="P5" t="n">
         <v>4406.4</v>
       </c>
-      <c r="J5" t="n">
+      <c r="Q5" t="n">
         <v>22103.2</v>
       </c>
-      <c r="K5" t="n">
+      <c r="R5" t="n">
         <v>10750.3</v>
       </c>
-      <c r="L5" t="n">
+      <c r="S5" t="n">
         <v>113.9</v>
       </c>
-      <c r="M5" t="n">
+      <c r="T5" t="n">
         <v>155017.9</v>
       </c>
     </row>
@@ -682,36 +801,57 @@
         <v>4711.280361703838</v>
       </c>
       <c r="C6" t="n">
+        <v>5.093267247391957</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5841.656145244067</v>
+      </c>
+      <c r="E6" t="n">
         <v>25.21829254173641</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
+        <v>0.1152524442861717</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8.907337524680072</v>
+      </c>
+      <c r="H6" t="n">
+        <v>862.3015150485546</v>
+      </c>
+      <c r="I6" t="n">
+        <v>91.09466047355265</v>
+      </c>
+      <c r="J6" t="n">
         <v>23.93682877137761</v>
       </c>
-      <c r="E6" t="n">
+      <c r="K6" t="n">
+        <v>21.66905586735843</v>
+      </c>
+      <c r="L6" t="n">
         <v>22502.2</v>
       </c>
-      <c r="F6" t="n">
+      <c r="M6" t="n">
         <v>2451648.4</v>
       </c>
-      <c r="G6" t="n">
+      <c r="N6" t="n">
         <v>156568.6</v>
       </c>
-      <c r="H6" t="n">
+      <c r="O6" t="n">
         <v>434.7</v>
       </c>
-      <c r="I6" t="n">
+      <c r="P6" t="n">
         <v>101261.7</v>
       </c>
-      <c r="J6" t="n">
+      <c r="Q6" t="n">
         <v>430505.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="R6" t="n">
         <v>335347</v>
       </c>
-      <c r="L6" t="n">
+      <c r="S6" t="n">
         <v>100025.9</v>
       </c>
-      <c r="M6" t="n">
+      <c r="T6" t="n">
         <v>67527.60000000001</v>
       </c>
     </row>
@@ -725,36 +865,57 @@
         <v>10712.78688055479</v>
       </c>
       <c r="C7" t="n">
+        <v>44.92800323479577</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3426.784948423556</v>
+      </c>
+      <c r="E7" t="n">
         <v>114.6235844419585</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
+        <v>36.79601979191474</v>
+      </c>
+      <c r="G7" t="n">
+        <v>11.18927006776147</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4446.46815640355</v>
+      </c>
+      <c r="I7" t="n">
+        <v>39.32866168363899</v>
+      </c>
+      <c r="J7" t="n">
         <v>110.3619187916323</v>
       </c>
-      <c r="E7" t="n">
+      <c r="K7" t="n">
+        <v>534.8650873444336</v>
+      </c>
+      <c r="L7" t="n">
         <v>198493.2</v>
       </c>
-      <c r="F7" t="n">
+      <c r="M7" t="n">
         <v>1438166.1</v>
       </c>
-      <c r="G7" t="n">
+      <c r="N7" t="n">
         <v>711644.3</v>
       </c>
-      <c r="H7" t="n">
+      <c r="O7" t="n">
         <v>138784.3</v>
       </c>
-      <c r="I7" t="n">
+      <c r="P7" t="n">
         <v>127203.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="Q7" t="n">
         <v>2219906.8</v>
       </c>
-      <c r="K7" t="n">
+      <c r="R7" t="n">
         <v>144780.7</v>
       </c>
-      <c r="L7" t="n">
+      <c r="S7" t="n">
         <v>461174.3</v>
       </c>
-      <c r="M7" t="n">
+      <c r="T7" t="n">
         <v>1666808</v>
       </c>
     </row>
@@ -768,36 +929,57 @@
         <v>547.3686727290767</v>
       </c>
       <c r="C8" t="n">
+        <v>1.61929692272608</v>
+      </c>
+      <c r="D8" t="n">
+        <v>372.6343574535877</v>
+      </c>
+      <c r="E8" t="n">
         <v>1.423444166567214</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
+        <v>1.700550213138959</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9597261952250647</v>
+      </c>
+      <c r="H8" t="n">
+        <v>120.6313361023383</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10.66929440237628</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.1080467977821443</v>
       </c>
-      <c r="E8" t="n">
+      <c r="K8" t="n">
+        <v>43.79557514293079</v>
+      </c>
+      <c r="L8" t="n">
         <v>7154.1</v>
       </c>
-      <c r="F8" t="n">
+      <c r="M8" t="n">
         <v>156388.6</v>
       </c>
-      <c r="G8" t="n">
+      <c r="N8" t="n">
         <v>8837.5</v>
       </c>
-      <c r="H8" t="n">
+      <c r="O8" t="n">
         <v>6414</v>
       </c>
-      <c r="I8" t="n">
+      <c r="P8" t="n">
         <v>10910.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="Q8" t="n">
         <v>60225.4</v>
       </c>
-      <c r="K8" t="n">
+      <c r="R8" t="n">
         <v>39276.9</v>
       </c>
-      <c r="L8" t="n">
+      <c r="S8" t="n">
         <v>451.5</v>
       </c>
-      <c r="M8" t="n">
+      <c r="T8" t="n">
         <v>136480.8</v>
       </c>
     </row>
@@ -811,36 +993,57 @@
         <v>332.3309798712251</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>336.4247150852873</v>
+      </c>
+      <c r="E9" t="n">
         <v>20.91895157873646</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
+        <v>0.04247398567896184</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.349998729769923</v>
+      </c>
+      <c r="H9" t="n">
+        <v>128.609075537228</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11.7489666150938</v>
+      </c>
+      <c r="J9" t="n">
         <v>31.77078398040542</v>
       </c>
-      <c r="E9" t="n">
+      <c r="K9" t="n">
+        <v>92.79620847839432</v>
+      </c>
+      <c r="L9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" t="n">
+      <c r="M9" t="n">
         <v>141192</v>
       </c>
-      <c r="G9" t="n">
+      <c r="N9" t="n">
         <v>129876</v>
       </c>
-      <c r="H9" t="n">
+      <c r="O9" t="n">
         <v>160.2</v>
       </c>
-      <c r="I9" t="n">
+      <c r="P9" t="n">
         <v>26715.6</v>
       </c>
-      <c r="J9" t="n">
+      <c r="Q9" t="n">
         <v>64208.3</v>
       </c>
-      <c r="K9" t="n">
+      <c r="R9" t="n">
         <v>43251.5</v>
       </c>
-      <c r="L9" t="n">
+      <c r="S9" t="n">
         <v>132762</v>
       </c>
-      <c r="M9" t="n">
+      <c r="T9" t="n">
         <v>289182.2</v>
       </c>
     </row>
@@ -854,36 +1057,57 @@
         <v>14270.68325329378</v>
       </c>
       <c r="C10" t="n">
+        <v>49.25214914708992</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1033.028457908843</v>
+      </c>
+      <c r="E10" t="n">
         <v>189.6648066295209</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
+        <v>94.61470052553967</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13.72459917842317</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4235.395466337122</v>
+      </c>
+      <c r="I10" t="n">
+        <v>136.9020888695593</v>
+      </c>
+      <c r="J10" t="n">
         <v>2.693272836410063</v>
       </c>
-      <c r="E10" t="n">
+      <c r="K10" t="n">
+        <v>594.8585445586324</v>
+      </c>
+      <c r="L10" t="n">
         <v>217597.4</v>
       </c>
-      <c r="F10" t="n">
+      <c r="M10" t="n">
         <v>433545.3</v>
       </c>
-      <c r="G10" t="n">
+      <c r="N10" t="n">
         <v>1177540.2</v>
       </c>
-      <c r="H10" t="n">
+      <c r="O10" t="n">
         <v>356860.2</v>
       </c>
-      <c r="I10" t="n">
+      <c r="P10" t="n">
         <v>156026</v>
       </c>
-      <c r="J10" t="n">
+      <c r="Q10" t="n">
         <v>2114528.4</v>
       </c>
-      <c r="K10" t="n">
+      <c r="R10" t="n">
         <v>503978</v>
       </c>
-      <c r="L10" t="n">
+      <c r="S10" t="n">
         <v>11254.5</v>
       </c>
-      <c r="M10" t="n">
+      <c r="T10" t="n">
         <v>1853766.5</v>
       </c>
     </row>
@@ -897,36 +1121,57 @@
         <v>28345.87769489861</v>
       </c>
       <c r="C11" t="n">
+        <v>239.8548794491036</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6528.329792877259</v>
+      </c>
+      <c r="E11" t="n">
         <v>1.542345041674418</v>
       </c>
-      <c r="D11" t="n">
+      <c r="F11" t="n">
+        <v>119.9749841133392</v>
+      </c>
+      <c r="G11" t="n">
+        <v>14.58102978948135</v>
+      </c>
+      <c r="H11" t="n">
+        <v>447.2511532757545</v>
+      </c>
+      <c r="I11" t="n">
+        <v>160.3656049334029</v>
+      </c>
+      <c r="J11" t="n">
         <v>20.73644193899824</v>
       </c>
-      <c r="E11" t="n">
+      <c r="K11" t="n">
+        <v>1200.26396960487</v>
+      </c>
+      <c r="L11" t="n">
         <v>1059685.7</v>
       </c>
-      <c r="F11" t="n">
+      <c r="M11" t="n">
         <v>2739834.2</v>
       </c>
-      <c r="G11" t="n">
+      <c r="N11" t="n">
         <v>9575.700000000001</v>
       </c>
-      <c r="H11" t="n">
+      <c r="O11" t="n">
         <v>452512.1</v>
       </c>
-      <c r="I11" t="n">
+      <c r="P11" t="n">
         <v>165762.2</v>
       </c>
-      <c r="J11" t="n">
+      <c r="Q11" t="n">
         <v>223290.9</v>
       </c>
-      <c r="K11" t="n">
+      <c r="R11" t="n">
         <v>590354.3</v>
       </c>
-      <c r="L11" t="n">
+      <c r="S11" t="n">
         <v>86652.3</v>
       </c>
-      <c r="M11" t="n">
+      <c r="T11" t="n">
         <v>3740400.4</v>
       </c>
     </row>
@@ -940,36 +1185,57 @@
         <v>3596.994135076789</v>
       </c>
       <c r="C12" t="n">
+        <v>6.7950217635189</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2033.946073628502</v>
+      </c>
+      <c r="E12" t="n">
         <v>60.56218167477856</v>
       </c>
-      <c r="D12" t="n">
+      <c r="F12" t="n">
+        <v>15.44417220464278</v>
+      </c>
+      <c r="G12" t="n">
+        <v>12.49690965351439</v>
+      </c>
+      <c r="H12" t="n">
+        <v>27.07752405296538</v>
+      </c>
+      <c r="I12" t="n">
+        <v>67.01530259582803</v>
+      </c>
+      <c r="J12" t="n">
         <v>72.70668843527154</v>
       </c>
-      <c r="E12" t="n">
+      <c r="K12" t="n">
+        <v>280.4686463471095</v>
+      </c>
+      <c r="L12" t="n">
         <v>30020.6</v>
       </c>
-      <c r="F12" t="n">
+      <c r="M12" t="n">
         <v>853614.2</v>
       </c>
-      <c r="G12" t="n">
+      <c r="N12" t="n">
         <v>376002.3</v>
       </c>
-      <c r="H12" t="n">
+      <c r="O12" t="n">
         <v>58251.1</v>
       </c>
-      <c r="I12" t="n">
+      <c r="P12" t="n">
         <v>142069.2</v>
       </c>
-      <c r="J12" t="n">
+      <c r="Q12" t="n">
         <v>13518.5</v>
       </c>
-      <c r="K12" t="n">
+      <c r="R12" t="n">
         <v>246703.6</v>
       </c>
-      <c r="L12" t="n">
+      <c r="S12" t="n">
         <v>303822.7</v>
       </c>
-      <c r="M12" t="n">
+      <c r="T12" t="n">
         <v>874028.6</v>
       </c>
     </row>
@@ -983,36 +1249,57 @@
         <v>16792.48892408131</v>
       </c>
       <c r="C13" t="n">
+        <v>93.19917184441836</v>
+      </c>
+      <c r="D13" t="n">
+        <v>306.5905869823397</v>
+      </c>
+      <c r="E13" t="n">
         <v>1.915798806268788</v>
       </c>
-      <c r="D13" t="n">
+      <c r="F13" t="n">
+        <v>0.4302015553226184</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.273114499950061</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4940.92295435839</v>
+      </c>
+      <c r="I13" t="n">
+        <v>27.50406966120342</v>
+      </c>
+      <c r="J13" t="n">
         <v>13.26584942709647</v>
       </c>
-      <c r="E13" t="n">
+      <c r="K13" t="n">
+        <v>5.287399038876524</v>
+      </c>
+      <c r="L13" t="n">
         <v>411756.6</v>
       </c>
-      <c r="F13" t="n">
+      <c r="M13" t="n">
         <v>128671.1</v>
       </c>
-      <c r="G13" t="n">
+      <c r="N13" t="n">
         <v>11894.3</v>
       </c>
-      <c r="H13" t="n">
+      <c r="O13" t="n">
         <v>1622.6</v>
       </c>
-      <c r="I13" t="n">
+      <c r="P13" t="n">
         <v>37209.9</v>
       </c>
-      <c r="J13" t="n">
+      <c r="Q13" t="n">
         <v>2466764.2</v>
       </c>
-      <c r="K13" t="n">
+      <c r="R13" t="n">
         <v>101250.8</v>
       </c>
-      <c r="L13" t="n">
+      <c r="S13" t="n">
         <v>55434.6</v>
       </c>
-      <c r="M13" t="n">
+      <c r="T13" t="n">
         <v>16477.2</v>
       </c>
     </row>
@@ -1026,36 +1313,57 @@
         <v>9109.778624705346</v>
       </c>
       <c r="C14" t="n">
+        <v>61.18473393353893</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1288.186512984262</v>
+      </c>
+      <c r="E14" t="n">
         <v>9.03643429441815</v>
       </c>
-      <c r="D14" t="n">
+      <c r="F14" t="n">
+        <v>3.254138314780736</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9.210020063314365</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4431.669608990146</v>
+      </c>
+      <c r="I14" t="n">
+        <v>74.63961494505254</v>
+      </c>
+      <c r="J14" t="n">
         <v>1.215747833383451</v>
       </c>
-      <c r="E14" t="n">
+      <c r="K14" t="n">
+        <v>9.177249932794254</v>
+      </c>
+      <c r="L14" t="n">
         <v>270315.9</v>
       </c>
-      <c r="F14" t="n">
+      <c r="M14" t="n">
         <v>540631</v>
       </c>
-      <c r="G14" t="n">
+      <c r="N14" t="n">
         <v>56103</v>
       </c>
-      <c r="H14" t="n">
+      <c r="O14" t="n">
         <v>12273.7</v>
       </c>
-      <c r="I14" t="n">
+      <c r="P14" t="n">
         <v>104702.7</v>
       </c>
-      <c r="J14" t="n">
+      <c r="Q14" t="n">
         <v>2212518.6</v>
       </c>
-      <c r="K14" t="n">
+      <c r="R14" t="n">
         <v>274771</v>
       </c>
-      <c r="L14" t="n">
+      <c r="S14" t="n">
         <v>5080.3</v>
       </c>
-      <c r="M14" t="n">
+      <c r="T14" t="n">
         <v>28599.2</v>
       </c>
     </row>
@@ -1069,36 +1377,57 @@
         <v>2463.159027280845</v>
       </c>
       <c r="C15" t="n">
+        <v>0.08682605772322505</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1076.066098064188</v>
+      </c>
+      <c r="E15" t="n">
         <v>57.05425150809297</v>
       </c>
-      <c r="D15" t="n">
+      <c r="F15" t="n">
+        <v>298.5991983207148</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.849785267346857</v>
+      </c>
+      <c r="H15" t="n">
+        <v>155.3607118686697</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9.896714585491594</v>
+      </c>
+      <c r="J15" t="n">
         <v>4.33144416358098</v>
       </c>
-      <c r="E15" t="n">
+      <c r="K15" t="n">
+        <v>290.2350536995733</v>
+      </c>
+      <c r="L15" t="n">
         <v>383.6</v>
       </c>
-      <c r="F15" t="n">
+      <c r="M15" t="n">
         <v>451607.5</v>
       </c>
-      <c r="G15" t="n">
+      <c r="N15" t="n">
         <v>354223.2</v>
       </c>
-      <c r="H15" t="n">
+      <c r="O15" t="n">
         <v>1126232.7</v>
       </c>
-      <c r="I15" t="n">
+      <c r="P15" t="n">
         <v>21029</v>
       </c>
-      <c r="J15" t="n">
+      <c r="Q15" t="n">
         <v>77564.10000000001</v>
       </c>
-      <c r="K15" t="n">
+      <c r="R15" t="n">
         <v>36432.8</v>
       </c>
-      <c r="L15" t="n">
+      <c r="S15" t="n">
         <v>18100</v>
       </c>
-      <c r="M15" t="n">
+      <c r="T15" t="n">
         <v>904463.8</v>
       </c>
     </row>
@@ -1112,36 +1441,57 @@
         <v>17906.77515070837</v>
       </c>
       <c r="C16" t="n">
+        <v>38.89703267161711</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1206.849800233279</v>
+      </c>
+      <c r="E16" t="n">
         <v>102.3249946290884</v>
       </c>
-      <c r="D16" t="n">
+      <c r="F16" t="n">
+        <v>85.54735300227092</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10.49544005904723</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4433.785175133189</v>
+      </c>
+      <c r="I16" t="n">
+        <v>70.80184283684716</v>
+      </c>
+      <c r="J16" t="n">
         <v>0.07291663185873616</v>
       </c>
-      <c r="E16" t="n">
+      <c r="K16" t="n">
+        <v>672.3690381123558</v>
+      </c>
+      <c r="L16" t="n">
         <v>171848.2</v>
       </c>
-      <c r="F16" t="n">
+      <c r="M16" t="n">
         <v>506495.3</v>
       </c>
-      <c r="G16" t="n">
+      <c r="N16" t="n">
         <v>635288.1</v>
       </c>
-      <c r="H16" t="n">
+      <c r="O16" t="n">
         <v>322660.7</v>
       </c>
-      <c r="I16" t="n">
+      <c r="P16" t="n">
         <v>119315.8</v>
       </c>
-      <c r="J16" t="n">
+      <c r="Q16" t="n">
         <v>2213574.8</v>
       </c>
-      <c r="K16" t="n">
+      <c r="R16" t="n">
         <v>260643</v>
       </c>
-      <c r="L16" t="n">
+      <c r="S16" t="n">
         <v>304.7</v>
       </c>
-      <c r="M16" t="n">
+      <c r="T16" t="n">
         <v>2095313.6</v>
       </c>
     </row>
@@ -1155,36 +1505,57 @@
         <v>10048.12492081233</v>
       </c>
       <c r="C17" t="n">
+        <v>42.08354446315343</v>
+      </c>
+      <c r="D17" t="n">
+        <v>81.46514277636082</v>
+      </c>
+      <c r="E17" t="n">
         <v>122.6855695297781</v>
       </c>
-      <c r="D17" t="n">
+      <c r="F17" t="n">
+        <v>19.27913299399843</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6.576294937623226</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5702.33087268178</v>
+      </c>
+      <c r="I17" t="n">
+        <v>47.76154654541193</v>
+      </c>
+      <c r="J17" t="n">
         <v>0.5763692413251265</v>
       </c>
-      <c r="E17" t="n">
+      <c r="K17" t="n">
+        <v>19.4326643614204</v>
+      </c>
+      <c r="L17" t="n">
         <v>185926.3</v>
       </c>
-      <c r="F17" t="n">
+      <c r="M17" t="n">
         <v>34189.6</v>
       </c>
-      <c r="G17" t="n">
+      <c r="N17" t="n">
         <v>761697.4</v>
       </c>
-      <c r="H17" t="n">
+      <c r="O17" t="n">
         <v>72715.5</v>
       </c>
-      <c r="I17" t="n">
+      <c r="P17" t="n">
         <v>74761.60000000001</v>
       </c>
-      <c r="J17" t="n">
+      <c r="Q17" t="n">
         <v>2846898.4</v>
       </c>
-      <c r="K17" t="n">
+      <c r="R17" t="n">
         <v>175824.7</v>
       </c>
-      <c r="L17" t="n">
+      <c r="S17" t="n">
         <v>2408.5</v>
       </c>
-      <c r="M17" t="n">
+      <c r="T17" t="n">
         <v>60558.3</v>
       </c>
     </row>
@@ -1198,36 +1569,57 @@
         <v>14427.07430264495</v>
       </c>
       <c r="C18" t="n">
+        <v>113.4208158271644</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6012.587454585566</v>
+      </c>
+      <c r="E18" t="n">
         <v>19.04688291008838</v>
       </c>
-      <c r="D18" t="n">
+      <c r="F18" t="n">
+        <v>83.4446786063649</v>
+      </c>
+      <c r="G18" t="n">
+        <v>15.77422001428772</v>
+      </c>
+      <c r="H18" t="n">
+        <v>298.5724416468075</v>
+      </c>
+      <c r="I18" t="n">
+        <v>134.0921323280171</v>
+      </c>
+      <c r="J18" t="n">
         <v>44.57149373784707</v>
       </c>
-      <c r="E18" t="n">
+      <c r="K18" t="n">
+        <v>788.0098576276167</v>
+      </c>
+      <c r="L18" t="n">
         <v>501096.4</v>
       </c>
-      <c r="F18" t="n">
+      <c r="M18" t="n">
         <v>2523385.5</v>
       </c>
-      <c r="G18" t="n">
+      <c r="N18" t="n">
         <v>118253.2</v>
       </c>
-      <c r="H18" t="n">
+      <c r="O18" t="n">
         <v>314730</v>
       </c>
-      <c r="I18" t="n">
+      <c r="P18" t="n">
         <v>179326.8</v>
       </c>
-      <c r="J18" t="n">
+      <c r="Q18" t="n">
         <v>149062.8</v>
       </c>
-      <c r="K18" t="n">
+      <c r="R18" t="n">
         <v>493633.7</v>
       </c>
-      <c r="L18" t="n">
+      <c r="S18" t="n">
         <v>186252.9</v>
       </c>
-      <c r="M18" t="n">
+      <c r="T18" t="n">
         <v>2455686.8</v>
       </c>
     </row>
@@ -1241,36 +1633,57 @@
         <v>19255.64795136216</v>
       </c>
       <c r="C19" t="n">
+        <v>204.9640454445152</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4691.11540548798</v>
+      </c>
+      <c r="E19" t="n">
         <v>59.75141042711244</v>
       </c>
-      <c r="D19" t="n">
+      <c r="F19" t="n">
+        <v>216.0279407569355</v>
+      </c>
+      <c r="G19" t="n">
+        <v>18.18910065062452</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1183.813287554303</v>
+      </c>
+      <c r="I19" t="n">
+        <v>175.9673926781343</v>
+      </c>
+      <c r="J19" t="n">
         <v>1.775413494453441</v>
       </c>
-      <c r="E19" t="n">
+      <c r="K19" t="n">
+        <v>1380.811902646251</v>
+      </c>
+      <c r="L19" t="n">
         <v>905537</v>
       </c>
-      <c r="F19" t="n">
+      <c r="M19" t="n">
         <v>1968785.1</v>
       </c>
-      <c r="G19" t="n">
+      <c r="N19" t="n">
         <v>370968.6</v>
       </c>
-      <c r="H19" t="n">
+      <c r="O19" t="n">
         <v>814797</v>
       </c>
-      <c r="I19" t="n">
+      <c r="P19" t="n">
         <v>206780</v>
       </c>
-      <c r="J19" t="n">
+      <c r="Q19" t="n">
         <v>591020.8</v>
       </c>
-      <c r="K19" t="n">
+      <c r="R19" t="n">
         <v>647789.2</v>
       </c>
-      <c r="L19" t="n">
+      <c r="S19" t="n">
         <v>7419</v>
       </c>
-      <c r="M19" t="n">
+      <c r="T19" t="n">
         <v>4303044.6</v>
       </c>
     </row>
@@ -1284,36 +1697,57 @@
         <v>12960.90821497778</v>
       </c>
       <c r="C20" t="n">
+        <v>3.092238973387934</v>
+      </c>
+      <c r="D20" t="n">
+        <v>105.9311817480854</v>
+      </c>
+      <c r="E20" t="n">
         <v>49.62784330075704</v>
       </c>
-      <c r="D20" t="n">
+      <c r="F20" t="n">
+        <v>11.75362826921554</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5.209148017552926</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4000.70543069918</v>
+      </c>
+      <c r="I20" t="n">
+        <v>26.80820182360506</v>
+      </c>
+      <c r="J20" t="n">
         <v>17.68842143252782</v>
       </c>
-      <c r="E20" t="n">
+      <c r="K20" t="n">
+        <v>69.95785483242288</v>
+      </c>
+      <c r="L20" t="n">
         <v>13661.6</v>
       </c>
-      <c r="F20" t="n">
+      <c r="M20" t="n">
         <v>44457.6</v>
       </c>
-      <c r="G20" t="n">
+      <c r="N20" t="n">
         <v>308116.1</v>
       </c>
-      <c r="H20" t="n">
+      <c r="O20" t="n">
         <v>44331.4</v>
       </c>
-      <c r="I20" t="n">
+      <c r="P20" t="n">
         <v>59219.4</v>
       </c>
-      <c r="J20" t="n">
+      <c r="Q20" t="n">
         <v>1997359</v>
       </c>
-      <c r="K20" t="n">
+      <c r="R20" t="n">
         <v>98689.10000000001</v>
       </c>
-      <c r="L20" t="n">
+      <c r="S20" t="n">
         <v>73915.39999999999</v>
       </c>
-      <c r="M20" t="n">
+      <c r="T20" t="n">
         <v>218010.7</v>
       </c>
     </row>
@@ -1327,36 +1761,57 @@
         <v>2150.376928578516</v>
       </c>
       <c r="C21" t="n">
+        <v>13.49742302959165</v>
+      </c>
+      <c r="D21" t="n">
+        <v>42.82104851699971</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.8724605394109904</v>
       </c>
-      <c r="D21" t="n">
+      <c r="F21" t="n">
+        <v>0.2454847898885816</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4652831409782301</v>
+      </c>
+      <c r="H21" t="n">
+        <v>740.9464958866804</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.495312470694698</v>
+      </c>
+      <c r="J21" t="n">
         <v>0</v>
       </c>
-      <c r="E21" t="n">
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>59632</v>
       </c>
-      <c r="F21" t="n">
+      <c r="M21" t="n">
         <v>17971.3</v>
       </c>
-      <c r="G21" t="n">
+      <c r="N21" t="n">
         <v>5416.7</v>
       </c>
-      <c r="H21" t="n">
+      <c r="O21" t="n">
         <v>925.9</v>
       </c>
-      <c r="I21" t="n">
+      <c r="P21" t="n">
         <v>5289.5</v>
       </c>
-      <c r="J21" t="n">
+      <c r="Q21" t="n">
         <v>369918.8</v>
       </c>
-      <c r="K21" t="n">
+      <c r="R21" t="n">
         <v>9186</v>
       </c>
-      <c r="L21" t="n">
+      <c r="S21" t="n">
         <v>0</v>
       </c>
-      <c r="M21" t="n">
+      <c r="T21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,36 +1825,57 @@
         <v>21445.12264227847</v>
       </c>
       <c r="C22" t="n">
+        <v>27.18809967775496</v>
+      </c>
+      <c r="D22" t="n">
+        <v>933.4685014827771</v>
+      </c>
+      <c r="E22" t="n">
         <v>213.5462455092384</v>
       </c>
-      <c r="D22" t="n">
+      <c r="F22" t="n">
+        <v>103.9681509073988</v>
+      </c>
+      <c r="G22" t="n">
+        <v>9.822668521634657</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4659.498576396329</v>
+      </c>
+      <c r="I22" t="n">
+        <v>55.59787624531978</v>
+      </c>
+      <c r="J22" t="n">
         <v>53.43116364156774</v>
       </c>
-      <c r="E22" t="n">
+      <c r="K22" t="n">
+        <v>332.4405455930781</v>
+      </c>
+      <c r="L22" t="n">
         <v>120117.8</v>
       </c>
-      <c r="F22" t="n">
+      <c r="M22" t="n">
         <v>391761.6</v>
       </c>
-      <c r="G22" t="n">
+      <c r="N22" t="n">
         <v>1325808.9</v>
       </c>
-      <c r="H22" t="n">
+      <c r="O22" t="n">
         <v>392138.8</v>
       </c>
-      <c r="I22" t="n">
+      <c r="P22" t="n">
         <v>111667.5</v>
       </c>
-      <c r="J22" t="n">
+      <c r="Q22" t="n">
         <v>2326262.6</v>
       </c>
-      <c r="K22" t="n">
+      <c r="R22" t="n">
         <v>204672.6</v>
       </c>
-      <c r="L22" t="n">
+      <c r="S22" t="n">
         <v>223275.2</v>
       </c>
-      <c r="M22" t="n">
+      <c r="T22" t="n">
         <v>1035989.4</v>
       </c>
     </row>
@@ -1413,36 +1889,57 @@
         <v>16733.84228057463</v>
       </c>
       <c r="C23" t="n">
+        <v>37.41021565396246</v>
+      </c>
+      <c r="D23" t="n">
+        <v>405.5126822248519</v>
+      </c>
+      <c r="E23" t="n">
         <v>115.5980497554218</v>
       </c>
-      <c r="D23" t="n">
+      <c r="F23" t="n">
+        <v>44.66953546302852</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7.197396692067538</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7610.702529755448</v>
+      </c>
+      <c r="I23" t="n">
+        <v>57.15835654350754</v>
+      </c>
+      <c r="J23" t="n">
         <v>22.36860667785391</v>
       </c>
-      <c r="E23" t="n">
+      <c r="K23" t="n">
+        <v>43.86610716953392</v>
+      </c>
+      <c r="L23" t="n">
         <v>165279.4</v>
       </c>
-      <c r="F23" t="n">
+      <c r="M23" t="n">
         <v>170187.1</v>
       </c>
-      <c r="G23" t="n">
+      <c r="N23" t="n">
         <v>717694.3</v>
       </c>
-      <c r="H23" t="n">
+      <c r="O23" t="n">
         <v>168481</v>
       </c>
-      <c r="I23" t="n">
+      <c r="P23" t="n">
         <v>81822.5</v>
       </c>
-      <c r="J23" t="n">
+      <c r="Q23" t="n">
         <v>3799656.2</v>
       </c>
-      <c r="K23" t="n">
+      <c r="R23" t="n">
         <v>210417.2</v>
       </c>
-      <c r="L23" t="n">
+      <c r="S23" t="n">
         <v>93472.7</v>
       </c>
-      <c r="M23" t="n">
+      <c r="T23" t="n">
         <v>136700.6</v>
       </c>
     </row>
@@ -1456,36 +1953,57 @@
         <v>2482.70790844974</v>
       </c>
       <c r="C24" t="n">
+        <v>0.1227017880389997</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1197.400304970904</v>
+      </c>
+      <c r="E24" t="n">
         <v>59.01676022194925</v>
       </c>
-      <c r="D24" t="n">
+      <c r="F24" t="n">
+        <v>9.958479316437039</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6.849782377573204</v>
+      </c>
+      <c r="H24" t="n">
+        <v>11.47577457237523</v>
+      </c>
+      <c r="I24" t="n">
+        <v>20.47047214964195</v>
+      </c>
+      <c r="J24" t="n">
         <v>106.6948607292308</v>
       </c>
-      <c r="E24" t="n">
+      <c r="K24" t="n">
+        <v>379.5742943772602</v>
+      </c>
+      <c r="L24" t="n">
         <v>542.1</v>
       </c>
-      <c r="F24" t="n">
+      <c r="M24" t="n">
         <v>502529.5</v>
       </c>
-      <c r="G24" t="n">
+      <c r="N24" t="n">
         <v>366407.5</v>
       </c>
-      <c r="H24" t="n">
+      <c r="O24" t="n">
         <v>37560.6</v>
       </c>
-      <c r="I24" t="n">
+      <c r="P24" t="n">
         <v>77870.7</v>
       </c>
-      <c r="J24" t="n">
+      <c r="Q24" t="n">
         <v>5729.3</v>
       </c>
-      <c r="K24" t="n">
+      <c r="R24" t="n">
         <v>75358</v>
       </c>
-      <c r="L24" t="n">
+      <c r="S24" t="n">
         <v>445850.6</v>
       </c>
-      <c r="M24" t="n">
+      <c r="T24" t="n">
         <v>1182873</v>
       </c>
     </row>
@@ -1499,36 +2017,57 @@
         <v>10321.80925717688</v>
       </c>
       <c r="C25" t="n">
+        <v>28.30210334901772</v>
+      </c>
+      <c r="D25" t="n">
+        <v>79.02568711807767</v>
+      </c>
+      <c r="E25" t="n">
         <v>3.650781949579912</v>
       </c>
-      <c r="D25" t="n">
+      <c r="F25" t="n">
+        <v>0.2838757582176307</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.841842763111938</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2670.879621719497</v>
+      </c>
+      <c r="I25" t="n">
+        <v>31.47595191166681</v>
+      </c>
+      <c r="J25" t="n">
         <v>22.17299770220137</v>
       </c>
-      <c r="E25" t="n">
+      <c r="K25" t="n">
+        <v>17.26240866386683</v>
+      </c>
+      <c r="L25" t="n">
         <v>125039.5</v>
       </c>
-      <c r="F25" t="n">
+      <c r="M25" t="n">
         <v>33165.8</v>
       </c>
-      <c r="G25" t="n">
+      <c r="N25" t="n">
         <v>22666</v>
       </c>
-      <c r="H25" t="n">
+      <c r="O25" t="n">
         <v>1070.7</v>
       </c>
-      <c r="I25" t="n">
+      <c r="P25" t="n">
         <v>43675.4</v>
       </c>
-      <c r="J25" t="n">
+      <c r="Q25" t="n">
         <v>1333441.2</v>
       </c>
-      <c r="K25" t="n">
+      <c r="R25" t="n">
         <v>115872.5</v>
       </c>
-      <c r="L25" t="n">
+      <c r="S25" t="n">
         <v>92655.3</v>
       </c>
-      <c r="M25" t="n">
+      <c r="T25" t="n">
         <v>53795.1</v>
       </c>
     </row>
@@ -1542,36 +2081,57 @@
         <v>117.2932870133736</v>
       </c>
       <c r="C26" t="n">
+        <v>0.008872735825731028</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10.99661243264568</v>
+      </c>
+      <c r="E26" t="n">
         <v>2.992285000649022</v>
       </c>
-      <c r="D26" t="n">
+      <c r="F26" t="n">
+        <v>0.0007158536912184579</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3639667364449614</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.154223998148039</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.6137773271864434</v>
+      </c>
+      <c r="J26" t="n">
         <v>0.06695790480497006</v>
       </c>
-      <c r="E26" t="n">
+      <c r="K26" t="n">
+        <v>16.33961999733992</v>
+      </c>
+      <c r="L26" t="n">
         <v>39.2</v>
       </c>
-      <c r="F26" t="n">
+      <c r="M26" t="n">
         <v>4615.1</v>
       </c>
-      <c r="G26" t="n">
+      <c r="N26" t="n">
         <v>18577.7</v>
       </c>
-      <c r="H26" t="n">
+      <c r="O26" t="n">
         <v>2.7</v>
       </c>
-      <c r="I26" t="n">
+      <c r="P26" t="n">
         <v>4137.7</v>
       </c>
-      <c r="J26" t="n">
+      <c r="Q26" t="n">
         <v>1075.5</v>
       </c>
-      <c r="K26" t="n">
+      <c r="R26" t="n">
         <v>2259.5</v>
       </c>
-      <c r="L26" t="n">
+      <c r="S26" t="n">
         <v>279.8</v>
       </c>
-      <c r="M26" t="n">
+      <c r="T26" t="n">
         <v>50919.4</v>
       </c>
     </row>
@@ -1585,36 +2145,57 @@
         <v>1622.557137018334</v>
       </c>
       <c r="C27" t="n">
+        <v>8.290892593240615</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1538.632448983865</v>
+      </c>
+      <c r="E27" t="n">
         <v>75.58490940501609</v>
       </c>
-      <c r="D27" t="n">
+      <c r="F27" t="n">
+        <v>1.902765624358336</v>
+      </c>
+      <c r="G27" t="n">
+        <v>8.183248058456329</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1409.377465490746</v>
+      </c>
+      <c r="I27" t="n">
+        <v>58.62384328944166</v>
+      </c>
+      <c r="J27" t="n">
         <v>103.4812881193148</v>
       </c>
-      <c r="E27" t="n">
+      <c r="K27" t="n">
+        <v>159.2986357909455</v>
+      </c>
+      <c r="L27" t="n">
         <v>36629.4</v>
       </c>
-      <c r="F27" t="n">
+      <c r="M27" t="n">
         <v>645739.1</v>
       </c>
-      <c r="G27" t="n">
+      <c r="N27" t="n">
         <v>469271.4</v>
       </c>
-      <c r="H27" t="n">
+      <c r="O27" t="n">
         <v>7176.7</v>
       </c>
-      <c r="I27" t="n">
+      <c r="P27" t="n">
         <v>93030</v>
       </c>
-      <c r="J27" t="n">
+      <c r="Q27" t="n">
         <v>703634.1</v>
       </c>
-      <c r="K27" t="n">
+      <c r="R27" t="n">
         <v>215812.1</v>
       </c>
-      <c r="L27" t="n">
+      <c r="S27" t="n">
         <v>432421.9</v>
       </c>
-      <c r="M27" t="n">
+      <c r="T27" t="n">
         <v>496424.7</v>
       </c>
     </row>
@@ -1628,36 +2209,57 @@
         <v>7057.146101971309</v>
       </c>
       <c r="C28" t="n">
+        <v>18.94107280397931</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3636.55049517887</v>
+      </c>
+      <c r="E28" t="n">
         <v>6.515436154462274</v>
       </c>
-      <c r="D28" t="n">
+      <c r="F28" t="n">
+        <v>2.212730272655928</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6.86577414901282</v>
+      </c>
+      <c r="H28" t="n">
+        <v>906.5160862990608</v>
+      </c>
+      <c r="I28" t="n">
+        <v>68.86980926221523</v>
+      </c>
+      <c r="J28" t="n">
         <v>19.13304181828966</v>
       </c>
-      <c r="E28" t="n">
+      <c r="K28" t="n">
+        <v>43.35990029070573</v>
+      </c>
+      <c r="L28" t="n">
         <v>83682.2</v>
       </c>
-      <c r="F28" t="n">
+      <c r="M28" t="n">
         <v>1526201.3</v>
       </c>
-      <c r="G28" t="n">
+      <c r="N28" t="n">
         <v>40451.3</v>
       </c>
-      <c r="H28" t="n">
+      <c r="O28" t="n">
         <v>8345.799999999999</v>
       </c>
-      <c r="I28" t="n">
+      <c r="P28" t="n">
         <v>78052.5</v>
       </c>
-      <c r="J28" t="n">
+      <c r="Q28" t="n">
         <v>452579.7</v>
       </c>
-      <c r="K28" t="n">
+      <c r="R28" t="n">
         <v>253530.6</v>
       </c>
-      <c r="L28" t="n">
+      <c r="S28" t="n">
         <v>79952.10000000001</v>
       </c>
-      <c r="M28" t="n">
+      <c r="T28" t="n">
         <v>135123.1</v>
       </c>
     </row>
@@ -1671,36 +2273,57 @@
         <v>3733.836303259058</v>
       </c>
       <c r="C29" t="n">
+        <v>9.062797975549046</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1228.930948436908</v>
+      </c>
+      <c r="E29" t="n">
         <v>35.6722114627882</v>
       </c>
-      <c r="D29" t="n">
+      <c r="F29" t="n">
+        <v>2.752590008233345</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.788590239798109</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1394.710114424973</v>
+      </c>
+      <c r="I29" t="n">
+        <v>22.22270523174691</v>
+      </c>
+      <c r="J29" t="n">
         <v>58.44281205324609</v>
       </c>
-      <c r="E29" t="n">
+      <c r="K29" t="n">
+        <v>162.5773802632845</v>
+      </c>
+      <c r="L29" t="n">
         <v>40039.7</v>
       </c>
-      <c r="F29" t="n">
+      <c r="M29" t="n">
         <v>515762.4</v>
       </c>
-      <c r="G29" t="n">
+      <c r="N29" t="n">
         <v>221472.1</v>
       </c>
-      <c r="H29" t="n">
+      <c r="O29" t="n">
         <v>10382</v>
       </c>
-      <c r="I29" t="n">
+      <c r="P29" t="n">
         <v>65806.7</v>
       </c>
-      <c r="J29" t="n">
+      <c r="Q29" t="n">
         <v>696311.4</v>
       </c>
-      <c r="K29" t="n">
+      <c r="R29" t="n">
         <v>81808.5</v>
       </c>
-      <c r="L29" t="n">
+      <c r="S29" t="n">
         <v>244217.6</v>
       </c>
-      <c r="M29" t="n">
+      <c r="T29" t="n">
         <v>506642.3</v>
       </c>
     </row>
@@ -1714,36 +2337,57 @@
         <v>2033.083641565142</v>
       </c>
       <c r="C30" t="n">
+        <v>8.179621242936294</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2243.236739046938</v>
+      </c>
+      <c r="E30" t="n">
         <v>49.22803870553746</v>
       </c>
-      <c r="D30" t="n">
+      <c r="F30" t="n">
+        <v>9.069389031943716</v>
+      </c>
+      <c r="G30" t="n">
+        <v>11.61789880192514</v>
+      </c>
+      <c r="H30" t="n">
+        <v>288.2033232891945</v>
+      </c>
+      <c r="I30" t="n">
+        <v>71.01019300721759</v>
+      </c>
+      <c r="J30" t="n">
         <v>78.2404314177612</v>
       </c>
-      <c r="E30" t="n">
+      <c r="K30" t="n">
+        <v>451.303600527517</v>
+      </c>
+      <c r="L30" t="n">
         <v>36137.8</v>
       </c>
-      <c r="F30" t="n">
+      <c r="M30" t="n">
         <v>941450.1</v>
       </c>
-      <c r="G30" t="n">
+      <c r="N30" t="n">
         <v>305633.9</v>
       </c>
-      <c r="H30" t="n">
+      <c r="O30" t="n">
         <v>34207.2</v>
       </c>
-      <c r="I30" t="n">
+      <c r="P30" t="n">
         <v>132076.3</v>
       </c>
-      <c r="J30" t="n">
+      <c r="Q30" t="n">
         <v>143886</v>
       </c>
-      <c r="K30" t="n">
+      <c r="R30" t="n">
         <v>261410</v>
       </c>
-      <c r="L30" t="n">
+      <c r="S30" t="n">
         <v>326946.8</v>
       </c>
-      <c r="M30" t="n">
+      <c r="T30" t="n">
         <v>1406404.1</v>
       </c>
     </row>
@@ -1757,36 +2401,57 @@
         <v>351.8798610401207</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.532344143232961</v>
+      </c>
+      <c r="E31" t="n">
         <v>33.18463506705441</v>
       </c>
-      <c r="D31" t="n">
+      <c r="F31" t="n">
+        <v>0.0001060523986990308</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.419696338431278</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.24737021271156</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.004264794882419633</v>
+      </c>
+      <c r="J31" t="n">
         <v>11.28240695963746</v>
       </c>
-      <c r="E31" t="n">
+      <c r="K31" t="n">
+        <v>59.01768930475936</v>
+      </c>
+      <c r="L31" t="n">
         <v>0</v>
       </c>
-      <c r="F31" t="n">
+      <c r="M31" t="n">
         <v>643.1</v>
       </c>
-      <c r="G31" t="n">
+      <c r="N31" t="n">
         <v>206027.9</v>
       </c>
-      <c r="H31" t="n">
+      <c r="O31" t="n">
         <v>0.4</v>
       </c>
-      <c r="I31" t="n">
+      <c r="P31" t="n">
         <v>16139.6</v>
       </c>
-      <c r="J31" t="n">
+      <c r="Q31" t="n">
         <v>123.5</v>
       </c>
-      <c r="K31" t="n">
+      <c r="R31" t="n">
         <v>15.7</v>
       </c>
-      <c r="L31" t="n">
+      <c r="S31" t="n">
         <v>47146.3</v>
       </c>
-      <c r="M31" t="n">
+      <c r="T31" t="n">
         <v>183917.7</v>
       </c>
     </row>
@@ -1800,36 +2465,57 @@
         <v>6060.153162357635</v>
       </c>
       <c r="C32" t="n">
+        <v>2.418182664994388</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6589.28115796378</v>
+      </c>
+      <c r="E32" t="n">
         <v>51.18653681008708</v>
       </c>
-      <c r="D32" t="n">
+      <c r="F32" t="n">
+        <v>17.13599960798874</v>
+      </c>
+      <c r="G32" t="n">
+        <v>63.30737680662831</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2635.726812244929</v>
+      </c>
+      <c r="I32" t="n">
+        <v>705.4487128838728</v>
+      </c>
+      <c r="J32" t="n">
         <v>79.86247349981471</v>
       </c>
-      <c r="E32" t="n">
+      <c r="K32" t="n">
+        <v>305.266814821452</v>
+      </c>
+      <c r="L32" t="n">
         <v>10683.6</v>
       </c>
-      <c r="F32" t="n">
+      <c r="M32" t="n">
         <v>2765414.5</v>
       </c>
-      <c r="G32" t="n">
+      <c r="N32" t="n">
         <v>317793.3</v>
       </c>
-      <c r="H32" t="n">
+      <c r="O32" t="n">
         <v>64632.2</v>
       </c>
-      <c r="I32" t="n">
+      <c r="P32" t="n">
         <v>719700.2</v>
       </c>
-      <c r="J32" t="n">
+      <c r="Q32" t="n">
         <v>1315891.1</v>
       </c>
-      <c r="K32" t="n">
+      <c r="R32" t="n">
         <v>2596970.1</v>
       </c>
-      <c r="L32" t="n">
+      <c r="S32" t="n">
         <v>333724.9</v>
       </c>
-      <c r="M32" t="n">
+      <c r="T32" t="n">
         <v>951307.5</v>
       </c>
     </row>
